--- a/CashFlow/AMZN_cashflow.xlsx
+++ b/CashFlow/AMZN_cashflow.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>6011000000.0</v>
+        <v>5981000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>6072000000.0</v>
@@ -1265,10 +1265,8 @@
           <t>Other operating activities</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>-108000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>-71000000.0</v>
